--- a/Работа/2. Отчеты/1. Ежедневный/4. Простои и сервис/2022/09. Сентябрь/Исходники из 1С_Сентябрь 2022/6. Простои (Вин).xlsx
+++ b/Работа/2. Отчеты/1. Ежедневный/4. Простои и сервис/2022/09. Сентябрь/Исходники из 1С_Сентябрь 2022/6. Простои (Вин).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr codeName="ЭтаКнига"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Костя\IT\Development\GitHub\kosskey\Downtime_and_service-Csh-\Работа\2. Отчеты\1. Ежедневный\4. Простои и сервис\2022\09. Сентябрь\Исходники из 1С_Сентябрь 2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055982CA-DED1-4489-AB8E-DC0760DA452D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Установочные" sheetId="98" r:id="rId1"/>
@@ -14,16 +20,30 @@
     <sheet name="05.09" sheetId="138" r:id="rId5"/>
     <sheet name="06.09" sheetId="139" r:id="rId6"/>
     <sheet name="07.09" sheetId="140" r:id="rId7"/>
+    <sheet name="08.09" sheetId="141" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t>Город</t>
   </si>
@@ -208,9 +228,6 @@
     <t>ОП Самара1</t>
   </si>
   <si>
-    <t>07.09</t>
-  </si>
-  <si>
     <t>ОП Калининград9</t>
   </si>
   <si>
@@ -230,12 +247,15 @@
   </si>
   <si>
     <t>ОП Москва3</t>
+  </si>
+  <si>
+    <t>08.09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
@@ -441,12 +461,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Рустамов А." refreshedDate="44743.625507523146" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="295">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Рустамов А." refreshedDate="44743.625507523146" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="295" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C1048576" sheet="сентябрь 2022"/>
   </cacheSource>
@@ -1966,7 +1989,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="СводнаяТаблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E1:F2" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -2027,6 +2050,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -2287,14 +2313,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1">
     <tabColor theme="8"/>
   </sheetPr>
@@ -2321,7 +2347,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C1">
         <f>LEN(J1)</f>
@@ -2862,7 +2888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4429,7 +4455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4514,7 +4540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4599,7 +4625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4684,7 +4710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4769,7 +4795,92 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9111D2E7-A4A6-4CC1-89B9-869B36BBA26F}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4780,27 +4891,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -4815,7 +4926,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -4825,7 +4936,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
